--- a/biology/Médecine/Heinrich_Quincke/Heinrich_Quincke.xlsx
+++ b/biology/Médecine/Heinrich_Quincke/Heinrich_Quincke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heinrich Irenaeus Quincke[1]  (né le 26 août 1842 à Francfort-sur-l'Oder, en province de Brandebourg - mort le 19 mai 1922 à Francfort-sur-le-Main) était un médecin interniste et chirurgien allemand. Sa principale contribution à la médecine interne fut l'introduction de la ponction lombaire à des fins diagnostiques et thérapeutiques. Après 1874, son principal domaine d'étude fut la pneumologie. Il est le premier à décrire l'angiœdème, souvent dénommé œdème de Quincke.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heinrich Irenaeus Quincke  (né le 26 août 1842 à Francfort-sur-l'Oder, en province de Brandebourg - mort le 19 mai 1922 à Francfort-sur-le-Main) était un médecin interniste et chirurgien allemand. Sa principale contribution à la médecine interne fut l'introduction de la ponction lombaire à des fins diagnostiques et thérapeutiques. Après 1874, son principal domaine d'étude fut la pneumologie. Il est le premier à décrire l'angiœdème, souvent dénommé œdème de Quincke.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il fut peut-être le premier, en 1882, à décrire l'angiœdème, souvent dénommé œdème de Quincke[2].
-La pulsation du lit de l'ongle ou « signe de Quincke » (Quinck’scher Kapillarpuls) est l'un des signes cliniques de l'insuffisance aortique qu'il a décrit[3].
-La « ponction de Quincke » (Quincke-Punktion) est l'un des éponymes de la ponction lombaire[4],[5].
-En 1893 il décrit ce qui est actuellement connu comme l'hypertension intracrânienne idiopathique, qu'il dénomme à l'époque "serous meningitis" ou méningite séreuse[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il fut peut-être le premier, en 1882, à décrire l'angiœdème, souvent dénommé œdème de Quincke.
+La pulsation du lit de l'ongle ou « signe de Quincke » (Quinck’scher Kapillarpuls) est l'un des signes cliniques de l'insuffisance aortique qu'il a décrit.
+La « ponction de Quincke » (Quincke-Punktion) est l'un des éponymes de la ponction lombaire,.
+En 1893 il décrit ce qui est actuellement connu comme l'hypertension intracrânienne idiopathique, qu'il dénomme à l'époque "serous meningitis" ou méningite séreuse.</t>
         </is>
       </c>
     </row>
